--- a/temp/pages/StructureDefinition-ITBHealthcareService.xlsx
+++ b/temp/pages/StructureDefinition-ITBHealthcareService.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$67</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="359">
   <si>
     <t>Path</t>
   </si>
@@ -348,6 +348,13 @@
 </t>
   </si>
   <si>
+    <t>ExtUrlPlaceholder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://portal.wof.purified.link/fhir/StructureDefinition/extUrlPlaceholder}
+</t>
+  </si>
+  <si>
     <t>HealthcareService.modifierExtension</t>
   </si>
   <si>
@@ -528,7 +535,7 @@
     <t>HealthcareService.name</t>
   </si>
   <si>
-    <t>Name or Display name</t>
+    <t>Name visible in GUI</t>
   </si>
   <si>
     <t>Further description of the service as it would be presented to a consumer while searching.</t>
@@ -1275,7 +1282,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK66"/>
+  <dimension ref="A1:AK67"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2177,7 +2184,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>40</v>
@@ -2480,43 +2487,41 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>38</v>
       </c>
@@ -2564,7 +2569,7 @@
         <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>39</v>
@@ -2573,7 +2578,7 @@
         <v>40</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>97</v>
@@ -2587,11 +2592,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2604,22 +2609,26 @@
         <v>38</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>38</v>
       </c>
@@ -2667,7 +2676,7 @@
         <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>39</v>
@@ -2679,18 +2688,18 @@
         <v>38</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>117</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2701,36 +2710,32 @@
         <v>39</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>47</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="P14" t="s" s="2">
-        <v>123</v>
-      </c>
+      <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
         <v>38</v>
       </c>
@@ -2774,13 +2779,13 @@
         <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>38</v>
@@ -2789,15 +2794,15 @@
         <v>58</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2811,31 +2816,33 @@
         <v>46</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>47</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="P15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="Q15" t="s" s="2">
         <v>38</v>
       </c>
@@ -2879,7 +2886,7 @@
         <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>39</v>
@@ -2894,26 +2901,26 @@
         <v>58</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>38</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>38</v>
@@ -2925,16 +2932,16 @@
         <v>47</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2960,13 +2967,13 @@
         <v>38</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>38</v>
@@ -2984,13 +2991,13 @@
         <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>38</v>
@@ -2999,19 +3006,19 @@
         <v>58</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>142</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3030,15 +3037,17 @@
         <v>47</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>38</v>
@@ -3063,13 +3072,13 @@
         <v>38</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>38</v>
@@ -3087,7 +3096,7 @@
         <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>39</v>
@@ -3102,19 +3111,19 @@
         <v>58</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>38</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3133,13 +3142,13 @@
         <v>47</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3166,13 +3175,13 @@
         <v>38</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>38</v>
@@ -3190,7 +3199,7 @@
         <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>39</v>
@@ -3205,15 +3214,15 @@
         <v>58</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3227,7 +3236,7 @@
         <v>40</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -3236,13 +3245,13 @@
         <v>47</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3269,13 +3278,13 @@
         <v>38</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>38</v>
@@ -3293,7 +3302,7 @@
         <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>39</v>
@@ -3308,15 +3317,15 @@
         <v>58</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>160</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3327,7 +3336,7 @@
         <v>39</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>47</v>
@@ -3339,13 +3348,13 @@
         <v>47</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3396,13 +3405,13 @@
         <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>38</v>
@@ -3411,15 +3420,15 @@
         <v>58</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>38</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3433,7 +3442,7 @@
         <v>46</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>38</v>
@@ -3445,14 +3454,12 @@
         <v>48</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>38</v>
@@ -3501,7 +3508,7 @@
         <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>39</v>
@@ -3516,7 +3523,7 @@
         <v>58</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>38</v>
@@ -3524,7 +3531,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3544,18 +3551,20 @@
         <v>38</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>38</v>
@@ -3604,7 +3613,7 @@
         <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>39</v>
@@ -3619,7 +3628,7 @@
         <v>58</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
@@ -3627,7 +3636,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3647,16 +3656,16 @@
         <v>38</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3707,7 +3716,7 @@
         <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>39</v>
@@ -3722,7 +3731,7 @@
         <v>58</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>38</v>
@@ -3730,7 +3739,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3741,7 +3750,7 @@
         <v>39</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>38</v>
@@ -3750,20 +3759,18 @@
         <v>38</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>38</v>
@@ -3812,13 +3819,13 @@
         <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>38</v>
@@ -3827,7 +3834,7 @@
         <v>58</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>
@@ -3835,7 +3842,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3846,7 +3853,7 @@
         <v>39</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>38</v>
@@ -3858,15 +3865,17 @@
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>48</v>
+        <v>183</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>38</v>
@@ -3915,22 +3924,22 @@
         <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>38</v>
@@ -3938,18 +3947,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>38</v>
@@ -3961,17 +3970,15 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>38</v>
@@ -4008,34 +4015,34 @@
         <v>38</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>193</v>
+        <v>38</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
@@ -4043,18 +4050,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>38</v>
@@ -4063,18 +4070,20 @@
         <v>38</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>38</v>
@@ -4099,54 +4108,54 @@
         <v>38</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>199</v>
+        <v>38</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>200</v>
+        <v>38</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>38</v>
+        <v>195</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>202</v>
+        <v>38</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4160,7 +4169,7 @@
         <v>46</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -4169,20 +4178,16 @@
         <v>47</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>38</v>
       </c>
@@ -4206,13 +4211,13 @@
         <v>38</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>38</v>
@@ -4230,7 +4235,7 @@
         <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>39</v>
@@ -4239,21 +4244,21 @@
         <v>46</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4267,28 +4272,28 @@
         <v>46</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>47</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>38</v>
@@ -4313,13 +4318,13 @@
         <v>38</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>216</v>
+        <v>38</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>217</v>
+        <v>38</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>38</v>
@@ -4337,7 +4342,7 @@
         <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>39</v>
@@ -4352,7 +4357,7 @@
         <v>58</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
@@ -4360,7 +4365,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4377,24 +4382,26 @@
         <v>38</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>47</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>221</v>
+        <v>66</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>38</v>
       </c>
@@ -4418,13 +4425,13 @@
         <v>38</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>38</v>
+        <v>219</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>38</v>
@@ -4442,7 +4449,7 @@
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
@@ -4457,7 +4464,7 @@
         <v>58</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
@@ -4465,7 +4472,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4488,15 +4495,17 @@
         <v>47</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>38</v>
@@ -4545,7 +4554,7 @@
         <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>39</v>
@@ -4560,7 +4569,7 @@
         <v>58</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
@@ -4568,7 +4577,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4579,7 +4588,7 @@
         <v>39</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>38</v>
@@ -4588,20 +4597,18 @@
         <v>38</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>38</v>
@@ -4656,7 +4663,7 @@
         <v>39</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>38</v>
@@ -4665,7 +4672,7 @@
         <v>58</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
@@ -4673,7 +4680,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4696,16 +4703,16 @@
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4731,13 +4738,13 @@
         <v>38</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>239</v>
+        <v>38</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>38</v>
@@ -4755,7 +4762,7 @@
         <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>39</v>
@@ -4770,7 +4777,7 @@
         <v>58</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
@@ -4778,7 +4785,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4801,15 +4808,17 @@
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>244</v>
+        <v>136</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>38</v>
@@ -4834,13 +4843,13 @@
         <v>38</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>38</v>
+        <v>241</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>38</v>
@@ -4858,7 +4867,7 @@
         <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>39</v>
@@ -4873,7 +4882,7 @@
         <v>58</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>38</v>
+        <v>244</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>38</v>
@@ -4881,7 +4890,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4892,7 +4901,7 @@
         <v>39</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>38</v>
@@ -4904,13 +4913,13 @@
         <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>48</v>
+        <v>246</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4961,22 +4970,22 @@
         <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>189</v>
+        <v>38</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>38</v>
@@ -4984,18 +4993,18 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>38</v>
@@ -5007,17 +5016,15 @@
         <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>38</v>
@@ -5066,22 +5073,22 @@
         <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>38</v>
@@ -5089,11 +5096,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>250</v>
+        <v>108</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5106,26 +5113,24 @@
         <v>38</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>251</v>
+        <v>193</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>252</v>
+        <v>194</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>38</v>
       </c>
@@ -5173,7 +5178,7 @@
         <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>253</v>
+        <v>196</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>39</v>
@@ -5188,7 +5193,7 @@
         <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>38</v>
@@ -5196,39 +5201,43 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>38</v>
       </c>
@@ -5252,10 +5261,10 @@
         <v>38</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>257</v>
+        <v>38</v>
       </c>
       <c r="Y38" t="s" s="2">
         <v>38</v>
@@ -5276,22 +5285,22 @@
         <v>38</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>242</v>
+        <v>89</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>38</v>
@@ -5299,7 +5308,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5322,17 +5331,15 @@
         <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>38</v>
@@ -5357,10 +5364,10 @@
         <v>38</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>38</v>
+        <v>259</v>
       </c>
       <c r="Y39" t="s" s="2">
         <v>38</v>
@@ -5381,7 +5388,7 @@
         <v>38</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>39</v>
@@ -5396,7 +5403,7 @@
         <v>58</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>38</v>
@@ -5404,7 +5411,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5415,7 +5422,7 @@
         <v>39</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>38</v>
@@ -5427,16 +5434,16 @@
         <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5462,13 +5469,13 @@
         <v>38</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>267</v>
+        <v>38</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>268</v>
+        <v>38</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>38</v>
@@ -5486,13 +5493,13 @@
         <v>38</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>38</v>
@@ -5501,7 +5508,7 @@
         <v>58</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>38</v>
@@ -5509,7 +5516,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5532,16 +5539,16 @@
         <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -5567,13 +5574,13 @@
         <v>38</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>38</v>
+        <v>270</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>38</v>
@@ -5591,7 +5598,7 @@
         <v>38</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>39</v>
@@ -5606,7 +5613,7 @@
         <v>58</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
@@ -5614,7 +5621,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5637,16 +5644,16 @@
         <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5672,13 +5679,13 @@
         <v>38</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>71</v>
+        <v>276</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>38</v>
@@ -5696,7 +5703,7 @@
         <v>38</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>39</v>
@@ -5711,7 +5718,7 @@
         <v>58</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>38</v>
+        <v>271</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>38</v>
@@ -5719,7 +5726,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5742,15 +5749,17 @@
         <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>38</v>
@@ -5775,13 +5784,13 @@
         <v>38</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>282</v>
+        <v>71</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>283</v>
+        <v>72</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>38</v>
@@ -5799,7 +5808,7 @@
         <v>38</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>39</v>
@@ -5814,7 +5823,7 @@
         <v>58</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>269</v>
+        <v>38</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>38</v>
@@ -5822,7 +5831,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5833,7 +5842,7 @@
         <v>39</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>38</v>
@@ -5845,13 +5854,13 @@
         <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5878,13 +5887,13 @@
         <v>38</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>38</v>
+        <v>284</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>38</v>
+        <v>285</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>38</v>
@@ -5902,13 +5911,13 @@
         <v>38</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>38</v>
@@ -5917,7 +5926,7 @@
         <v>58</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>38</v>
@@ -5925,7 +5934,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5936,7 +5945,7 @@
         <v>39</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>38</v>
@@ -5948,17 +5957,15 @@
         <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>244</v>
+        <v>121</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>290</v>
-      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>38</v>
@@ -6007,13 +6014,13 @@
         <v>38</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>38</v>
@@ -6022,7 +6029,7 @@
         <v>58</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>38</v>
@@ -6030,7 +6037,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6041,7 +6048,7 @@
         <v>39</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>38</v>
@@ -6053,15 +6060,17 @@
         <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>48</v>
+        <v>246</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>186</v>
+        <v>290</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>38</v>
@@ -6110,22 +6119,22 @@
         <v>38</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>188</v>
+        <v>289</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>189</v>
+        <v>293</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>38</v>
@@ -6133,18 +6142,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>38</v>
@@ -6156,17 +6165,15 @@
         <v>38</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>38</v>
@@ -6215,22 +6222,22 @@
         <v>38</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>38</v>
@@ -6238,11 +6245,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>250</v>
+        <v>108</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6255,26 +6262,24 @@
         <v>38</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>251</v>
+        <v>193</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>252</v>
+        <v>194</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>38</v>
       </c>
@@ -6322,7 +6327,7 @@
         <v>38</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>253</v>
+        <v>196</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>39</v>
@@ -6337,7 +6342,7 @@
         <v>97</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>38</v>
@@ -6345,11 +6350,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6362,22 +6367,26 @@
         <v>38</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>296</v>
+        <v>253</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>38</v>
       </c>
@@ -6401,13 +6410,13 @@
         <v>38</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>298</v>
+        <v>38</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>299</v>
+        <v>38</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>38</v>
@@ -6425,7 +6434,7 @@
         <v>38</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>39</v>
@@ -6437,10 +6446,10 @@
         <v>38</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>291</v>
+        <v>89</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>38</v>
@@ -6448,7 +6457,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6459,7 +6468,7 @@
         <v>39</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>38</v>
@@ -6471,13 +6480,13 @@
         <v>38</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6504,13 +6513,13 @@
         <v>38</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>38</v>
+        <v>300</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>38</v>
+        <v>301</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>38</v>
@@ -6528,13 +6537,13 @@
         <v>38</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>38</v>
@@ -6543,7 +6552,7 @@
         <v>58</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>38</v>
@@ -6551,7 +6560,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6574,17 +6583,15 @@
         <v>38</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="K51" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>307</v>
-      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>38</v>
@@ -6633,7 +6640,7 @@
         <v>38</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>39</v>
@@ -6648,7 +6655,7 @@
         <v>58</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>38</v>
@@ -6656,7 +6663,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6679,16 +6686,16 @@
         <v>38</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -6738,7 +6745,7 @@
         <v>38</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>39</v>
@@ -6753,7 +6760,7 @@
         <v>58</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>38</v>
@@ -6761,7 +6768,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6772,7 +6779,7 @@
         <v>39</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>38</v>
@@ -6784,15 +6791,17 @@
         <v>38</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>244</v>
+        <v>306</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M53" s="2"/>
+      <c r="M53" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>38</v>
@@ -6841,13 +6850,13 @@
         <v>38</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>38</v>
@@ -6856,7 +6865,7 @@
         <v>58</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>38</v>
@@ -6864,7 +6873,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6875,7 +6884,7 @@
         <v>39</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>38</v>
@@ -6887,13 +6896,13 @@
         <v>38</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>48</v>
+        <v>246</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>186</v>
+        <v>314</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>187</v>
+        <v>315</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -6944,22 +6953,22 @@
         <v>38</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>188</v>
+        <v>313</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>189</v>
+        <v>293</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>38</v>
@@ -6967,18 +6976,18 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>38</v>
@@ -6990,17 +6999,15 @@
         <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>38</v>
@@ -7049,22 +7056,22 @@
         <v>38</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>38</v>
@@ -7072,11 +7079,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>250</v>
+        <v>108</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7089,26 +7096,24 @@
         <v>38</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>251</v>
+        <v>193</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>252</v>
+        <v>194</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>38</v>
       </c>
@@ -7156,7 +7161,7 @@
         <v>38</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>253</v>
+        <v>196</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>39</v>
@@ -7171,7 +7176,7 @@
         <v>97</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>38</v>
@@ -7179,39 +7184,43 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>318</v>
+        <v>253</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>38</v>
       </c>
@@ -7259,22 +7268,22 @@
         <v>38</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>189</v>
+        <v>89</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>38</v>
@@ -7282,7 +7291,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7290,7 +7299,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>46</v>
@@ -7305,13 +7314,13 @@
         <v>38</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7362,10 +7371,10 @@
         <v>38</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>46</v>
@@ -7377,7 +7386,7 @@
         <v>58</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>291</v>
+        <v>191</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>38</v>
@@ -7385,7 +7394,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7408,13 +7417,13 @@
         <v>38</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>48</v>
+        <v>229</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7465,7 +7474,7 @@
         <v>38</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>39</v>
@@ -7480,15 +7489,15 @@
         <v>58</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7499,10 +7508,10 @@
         <v>39</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>38</v>
@@ -7511,13 +7520,13 @@
         <v>38</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7568,13 +7577,13 @@
         <v>38</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>38</v>
@@ -7583,15 +7592,15 @@
         <v>58</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>189</v>
+        <v>293</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7602,10 +7611,10 @@
         <v>39</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>38</v>
@@ -7614,13 +7623,13 @@
         <v>38</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>48</v>
+        <v>329</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>186</v>
+        <v>330</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>187</v>
+        <v>331</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7671,22 +7680,22 @@
         <v>38</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>188</v>
+        <v>328</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>38</v>
@@ -7694,18 +7703,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>38</v>
@@ -7717,17 +7726,15 @@
         <v>38</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>38</v>
@@ -7764,34 +7771,34 @@
         <v>38</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>193</v>
+        <v>38</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>38</v>
@@ -7799,18 +7806,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>38</v>
@@ -7819,19 +7826,19 @@
         <v>38</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>333</v>
+        <v>193</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>334</v>
+        <v>194</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>335</v>
+        <v>111</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -7869,34 +7876,34 @@
         <v>38</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>38</v>
+        <v>195</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>336</v>
+        <v>196</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>337</v>
+        <v>38</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>38</v>
@@ -7904,7 +7911,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -7927,16 +7934,16 @@
         <v>47</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -7962,13 +7969,13 @@
         <v>38</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>342</v>
+        <v>38</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>343</v>
+        <v>38</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>344</v>
+        <v>38</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>38</v>
@@ -7986,7 +7993,7 @@
         <v>38</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>39</v>
@@ -7995,7 +8002,7 @@
         <v>46</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>38</v>
+        <v>339</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>58</v>
@@ -8009,7 +8016,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8032,16 +8039,16 @@
         <v>47</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -8067,13 +8074,13 @@
         <v>38</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>38</v>
+        <v>344</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>38</v>
+        <v>345</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>38</v>
+        <v>346</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>38</v>
@@ -8091,7 +8098,7 @@
         <v>38</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>39</v>
@@ -8106,7 +8113,7 @@
         <v>58</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>351</v>
+        <v>89</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>38</v>
@@ -8114,7 +8121,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8137,16 +8144,16 @@
         <v>47</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -8196,7 +8203,7 @@
         <v>38</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>39</v>
@@ -8211,14 +8218,119 @@
         <v>58</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AK66" t="s" s="2">
+      <c r="AK67" t="s" s="2">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK66">
+  <autoFilter ref="A1:AK67">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8228,7 +8340,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI65">
+  <conditionalFormatting sqref="A2:AI66">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/temp/pages/StructureDefinition-ITBHealthcareService.xlsx
+++ b/temp/pages/StructureDefinition-ITBHealthcareService.xlsx
@@ -2184,7 +2184,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>40</v>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>46</v>
